--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,85 +64,94 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>friends</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -506,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -625,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6176470588235294</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -743,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.417989417989418</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3372093023255814</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,69 +849,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>342</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <v>87</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.835509138381201</v>
-      </c>
-      <c r="L8">
-        <v>320</v>
-      </c>
-      <c r="M8">
-        <v>320</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1812080536912752</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>122</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +925,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.796875</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +977,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1159,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6279069767441861</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.62</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6029411764705882</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L23">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5851063829787234</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="M24">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5525423728813559</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5523012552301255</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L27">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.525</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4943820224719101</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1442,16 +1424,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,33 +1445,111 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K31">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="L31">
-        <v>22</v>
-      </c>
-      <c r="M31">
-        <v>22</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>51</v>
+      <c r="K32">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L32">
+        <v>42</v>
+      </c>
+      <c r="M32">
+        <v>42</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
